--- a/data/ESLO/all_selected_data/où_questions.xlsx
+++ b/data/ESLO/all_selected_data/où_questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/all_selected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91130603-ADE0-1F47-AF70-8E3B8FEDEBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB8F199-2DDE-CA43-ABEB-63BF743FEF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67060" yWindow="-10300" windowWidth="52480" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId2"/>
-    <pivotCache cacheId="31" r:id="rId3"/>
+    <pivotCache cacheId="151" r:id="rId2"/>
+    <pivotCache cacheId="152" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6667" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6691" uniqueCount="1581">
   <si>
     <t>recherche</t>
   </si>
@@ -4755,13 +4755,25 @@
   </si>
   <si>
     <t>Count of in situ</t>
+  </si>
+  <si>
+    <t>est-ce que</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que </t>
+  </si>
+  <si>
+    <t>que c'est  que</t>
+  </si>
+  <si>
+    <t>non cleft questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4776,6 +4788,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4813,7 +4831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4826,6 +4844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5332,64 +5351,12 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:alpha val="90000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:innerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="threePt" dir="t"/>
-          </a:scene3d>
-          <a:sp3d contourW="19050" prstMaterial="flat">
-            <a:contourClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:spPr/>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
@@ -5456,60 +5423,6 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -5545,60 +5458,6 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -5634,60 +5493,6 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -5723,60 +5528,6 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -5812,60 +5563,6 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -5901,60 +5598,6 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -5994,60 +5637,6 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -6087,60 +5676,6 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -6728,7 +6263,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
@@ -7222,6 +6756,723 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="19050" prstMaterial="flat">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF">
+                <a:alpha val="90000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="4F81BD">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="19050" prstMaterial="flat">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="19050" prstMaterial="flat">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="19050" prstMaterial="flat">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="19050" prstMaterial="flat">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="19050" prstMaterial="flat">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="19050" prstMaterial="flat">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:innerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="19050" prstMaterial="flat">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:view3D>
       <c:rotX val="50"/>
       <c:rotY val="0"/>
@@ -7968,6 +8219,47 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -8132,7 +8424,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
@@ -8143,6 +8434,1556 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A659-A748-BBE5-01BF5B424616}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A659-A748-BBE5-01BF5B424616}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A659-A748-BBE5-01BF5B424616}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A659-A748-BBE5-01BF5B424616}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A659-A748-BBE5-01BF5B424616}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A659-A748-BBE5-01BF5B424616}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A659-A748-BBE5-01BF5B424616}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A659-A748-BBE5-01BF5B424616}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A659-A748-BBE5-01BF5B424616}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A659-A748-BBE5-01BF5B424616}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A659-A748-BBE5-01BF5B424616}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A659-A748-BBE5-01BF5B424616}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$AE$14:$AF$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>est-ce que</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>que </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>que c'est  que</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$14:$AG$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A659-A748-BBE5-01BF5B424616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DE08-A441-A9AC-9BBBD06B4E76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DE08-A441-A9AC-9BBBD06B4E76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DE08-A441-A9AC-9BBBD06B4E76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-DE08-A441-A9AC-9BBBD06B4E76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DE08-A441-A9AC-9BBBD06B4E76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DE08-A441-A9AC-9BBBD06B4E76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DE08-A441-A9AC-9BBBD06B4E76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DE08-A441-A9AC-9BBBD06B4E76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DE08-A441-A9AC-9BBBD06B4E76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DE08-A441-A9AC-9BBBD06B4E76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$AG$64:$AH$68</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>est-ce que</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>que </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AI$64:$AI$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE08-A441-A9AC-9BBBD06B4E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8267,6 +10108,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8810,6 +10691,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9377,19 +11761,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9402,11 +11786,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9438,70 +11822,151 @@
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
           </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9516,10 +11981,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -9527,19 +11990,22 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9564,15 +12030,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9587,8 +12051,8 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -9606,10 +12070,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -9625,10 +12089,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -9644,40 +12108,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9690,20 +12129,38 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9715,17 +12172,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -9735,8 +12191,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9774,10 +12230,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -9798,7 +12254,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9807,14 +12263,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9844,8 +12299,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9861,26 +12316,20 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10594,6 +13043,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A0EE8E-BF09-A955-DE0B-5287D50DBF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93932DD2-80BC-8C33-A142-4EC1EAF6334B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13609,7 +16130,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF16CB15-2E8F-6F4F-8B9B-76BE456BFB74}" name="PivotTable5" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF16CB15-2E8F-6F4F-8B9B-76BE456BFB74}" name="PivotTable5" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="O65:P75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -13672,12 +16193,126 @@
   <dataFields count="1">
     <dataField name="Count of in situ" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="9">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -13696,7 +16331,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{862E30AB-11FA-A24A-94CA-1B52C8EFAF25}" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{862E30AB-11FA-A24A-94CA-1B52C8EFAF25}" name="PivotTable4" cacheId="151" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="O13:P24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -14236,10 +16871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P739"/>
+  <dimension ref="A1:AI739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="AF89" sqref="AF89"/>
+    <sheetView tabSelected="1" topLeftCell="J36" workbookViewId="0">
+      <selection activeCell="AL64" sqref="AL64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14248,7 +16883,7 @@
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -14280,7 +16915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14312,7 +16947,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14344,7 +16979,7 @@
         <v>1430386</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14376,7 +17011,7 @@
         <v>2424703</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -14408,7 +17043,7 @@
         <v>66273</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -14440,7 +17075,7 @@
         <v>1015263</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -14472,7 +17107,7 @@
         <v>2290143</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -14504,7 +17139,7 @@
         <v>1881173</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -14536,7 +17171,7 @@
         <v>2002487</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -14568,7 +17203,7 @@
         <v>2838929</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -14603,7 +17238,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -14635,7 +17270,7 @@
         <v>4129669</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -14672,8 +17307,11 @@
       <c r="P13" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AF13" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -14710,8 +17348,17 @@
       <c r="P14" s="4">
         <v>243</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AE14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AG14">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -14748,8 +17395,17 @@
       <c r="P15" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AE15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -14786,8 +17442,17 @@
       <c r="P16" s="4">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AE16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -14824,8 +17489,17 @@
       <c r="P17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AE17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -14862,8 +17536,17 @@
       <c r="P18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AE18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -14900,8 +17583,17 @@
       <c r="P19" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AE19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -14939,7 +17631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -14977,7 +17669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -15015,7 +17707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -15053,7 +17745,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -15091,7 +17783,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -15123,7 +17815,7 @@
         <v>1790564</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -15155,7 +17847,7 @@
         <v>4389341</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -15187,7 +17879,7 @@
         <v>454441</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -15219,7 +17911,7 @@
         <v>5292885</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -15251,7 +17943,7 @@
         <v>5543794</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -15283,7 +17975,7 @@
         <v>5595620</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -15315,7 +18007,7 @@
         <v>48109</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -15859,7 +18551,7 @@
         <v>5455792</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -15891,7 +18583,7 @@
         <v>5724292</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -15923,7 +18615,7 @@
         <v>1531163</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -15955,7 +18647,7 @@
         <v>2366551</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -15987,7 +18679,7 @@
         <v>3498276</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -16019,7 +18711,7 @@
         <v>1328672</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -16051,7 +18743,7 @@
         <v>2814167</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -16083,7 +18775,7 @@
         <v>91686</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -16115,7 +18807,7 @@
         <v>2958200</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -16147,7 +18839,7 @@
         <v>2960164</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -16179,7 +18871,7 @@
         <v>2961272</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -16211,7 +18903,7 @@
         <v>5305103</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -16243,7 +18935,7 @@
         <v>5371402</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -16275,7 +18967,7 @@
         <v>223029</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -16307,7 +18999,7 @@
         <v>995955</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -16341,8 +19033,11 @@
       <c r="O63" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AH63" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -16373,8 +19068,17 @@
       <c r="J64">
         <v>1876757</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AG64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AI64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -16411,8 +19115,17 @@
       <c r="P65" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AG65" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AI65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -16449,8 +19162,17 @@
       <c r="P66" s="4">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AG66" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI66">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -16487,8 +19209,17 @@
       <c r="P67" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AG67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -16525,8 +19256,17 @@
       <c r="P68" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AG68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI68">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -16564,7 +19304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -16602,7 +19342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -16640,7 +19380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -16678,7 +19418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -16716,7 +19456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -16754,7 +19494,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -16792,7 +19532,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -16824,7 +19564,7 @@
         <v>4082348</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -16856,7 +19596,7 @@
         <v>20777</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -16888,7 +19628,7 @@
         <v>3859315</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -16920,7 +19660,7 @@
         <v>69853</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1</v>
       </c>

--- a/data/ESLO/all_selected_data/où_questions.xlsx
+++ b/data/ESLO/all_selected_data/où_questions.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/all_selected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB8F199-2DDE-CA43-ABEB-63BF743FEF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BB5BAB-A7BC-DC49-B157-B21F51CD1F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67060" yWindow="-10300" windowWidth="52480" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="151" r:id="rId2"/>
-    <pivotCache cacheId="152" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId2"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -9081,6 +9081,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -9108,26 +9129,17 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AE$14:$AF$19</c:f>
+              <c:f>Sheet1!$AE$17:$AF$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>est-ce que</c:v>
+                    <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>que </c:v>
+                    <c:v>VS</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>que c'est  que</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>SV</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>VS</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>SV</c:v>
                   </c:pt>
                 </c:lvl>
@@ -9139,15 +9151,6 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>in situ</c:v>
                   </c:pt>
                 </c:lvl>
@@ -9156,26 +9159,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$14:$AG$19</c:f>
+              <c:f>Sheet1!$AG$17:$AG$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>157</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
@@ -9827,6 +9821,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -9854,23 +9869,17 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AG$64:$AH$68</c:f>
+              <c:f>Sheet1!$AG$66:$AH$68</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>est-ce que</c:v>
+                    <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>que </c:v>
+                    <c:v>VS</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>SV</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>VS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>SV</c:v>
                   </c:pt>
                 </c:lvl>
@@ -9882,12 +9891,6 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>in situ</c:v>
                   </c:pt>
                 </c:lvl>
@@ -9896,23 +9899,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$64:$AI$68</c:f>
+              <c:f>Sheet1!$AI$66:$AI$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
@@ -16130,7 +16127,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF16CB15-2E8F-6F4F-8B9B-76BE456BFB74}" name="PivotTable5" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF16CB15-2E8F-6F4F-8B9B-76BE456BFB74}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="O65:P75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -16331,7 +16328,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{862E30AB-11FA-A24A-94CA-1B52C8EFAF25}" name="PivotTable4" cacheId="151" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{862E30AB-11FA-A24A-94CA-1B52C8EFAF25}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="O13:P24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -16873,7 +16870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W49" workbookViewId="0">
       <selection activeCell="AL64" sqref="AL64"/>
     </sheetView>
   </sheetViews>
